--- a/pred_ohlcv/54_21/2020-01-12 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LUNA ohlcv.xlsx
@@ -9154,7 +9154,7 @@
         <v>-31196.88719999999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-27458.05709999999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-30634.53509999999</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-33181.63419999999</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-30682.55249999999</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-26464.03119999999</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-32369.02519999999</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-28663.84999999999</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>30152.13607563999</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>16926.84387563999</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>18216.06517563999</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>21971.07807563999</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>22735.01597563999</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>21131.57087563999</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>21907.40207563999</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>22377.88911795999</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>23871.34031795999</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>26885.45241795999</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>25270.83091795999</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>28302.58641795999</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>37085.33361795999</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>33630.39341795999</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>32425.42051795999</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>28375.64861795999</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>20144.30551795999</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>16857.98741795999</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>12518.16283294999</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>-88940.61199561003</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-48926.93329561003</v>
       </c>
       <c r="H1009">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -26652,7 +26652,7 @@
         <v>-52825.84829561003</v>
       </c>
       <c r="H1010">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1011" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-63491.72729561004</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-63491.72729561004</v>
       </c>
       <c r="H1060">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-60867.84169561003</v>
       </c>
       <c r="H1088">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-60647.83239561003</v>
       </c>
       <c r="H1089">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-76388.23829561003</v>
       </c>
       <c r="H1090">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-77955.69459561004</v>
       </c>
       <c r="H1092">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-77955.69459561004</v>
       </c>
       <c r="H1093">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-78014.55459561004</v>
       </c>
       <c r="H1094">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-77976.12459561005</v>
       </c>
       <c r="H1095">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-79259.72389561005</v>
       </c>
       <c r="H1096">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-77855.56619561005</v>
       </c>
       <c r="H1097">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-78359.65049561005</v>
       </c>
       <c r="H1098">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-78359.65049561005</v>
       </c>
       <c r="H1099">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-77839.21049561005</v>
       </c>
       <c r="H1100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-107372.89369561</v>
       </c>
       <c r="H1178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-111557.86289561</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-116102.07819561</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-115860.10579561</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-115695.92579561</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-115140.5676956101</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-112100.0977956101</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-12 LUNA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-12 LUNA ohlcv.xlsx
@@ -9154,7 +9154,7 @@
         <v>-31196.88719999999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-27458.05709999999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-30634.53509999999</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-33181.63419999999</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-30682.55249999999</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-26464.03119999999</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-30056.12579999999</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>-32369.02519999999</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-28663.84999999999</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>27707.29487563999</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>30152.13607563999</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>16926.84387563999</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>18216.06517563999</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>21971.07807563999</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>21860.58307563999</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>22735.01597563999</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>21131.57087563999</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>21907.40207563999</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>22377.88911795999</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>23871.34031795999</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>30180.91491795999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>26885.45241795999</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>25270.83091795999</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>27253.16511795999</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>27374.97781795999</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>28302.58641795999</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>23347.07091795999</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>27140.23571795999</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>37085.33361795999</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>33630.39341795999</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>30073.19401795999</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>32425.42051795999</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>28375.64861795999</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>20144.30551795999</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>16857.98741795999</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>13913.27121795999</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>10170.37701795999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>12447.64391795999</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>15843.43393294999</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>12518.16283294999</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>9352.007232949991</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>6607.218832949991</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>10440.92233294999</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>6578.174632949991</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3159.604932949991</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-1890.737467050009</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>2153.28693294999</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>2153.28693294999</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>1620.921432949991</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -26626,7 +26626,7 @@
         <v>-48926.93329561003</v>
       </c>
       <c r="H1009">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1010" spans="1:8">
@@ -27354,7 +27354,7 @@
         <v>-58407.79599561003</v>
       </c>
       <c r="H1037">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1038" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-65033.20399561003</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-63140.47129561003</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-63530.08259561003</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-62610.48249561003</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28680,7 +28680,7 @@
         <v>-60867.84169561003</v>
       </c>
       <c r="H1088">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1089" spans="1:8">
@@ -28706,7 +28706,7 @@
         <v>-60647.83239561003</v>
       </c>
       <c r="H1089">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1090" spans="1:8">
@@ -28732,7 +28732,7 @@
         <v>-76388.23829561003</v>
       </c>
       <c r="H1090">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1091" spans="1:8">
@@ -28758,7 +28758,7 @@
         <v>-78303.41459561004</v>
       </c>
       <c r="H1091">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1092" spans="1:8">
@@ -28784,7 +28784,7 @@
         <v>-77955.69459561004</v>
       </c>
       <c r="H1092">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093" spans="1:8">
@@ -28810,7 +28810,7 @@
         <v>-77955.69459561004</v>
       </c>
       <c r="H1093">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1094" spans="1:8">
@@ -28836,7 +28836,7 @@
         <v>-78014.55459561004</v>
       </c>
       <c r="H1094">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1095" spans="1:8">
@@ -28862,7 +28862,7 @@
         <v>-77976.12459561005</v>
       </c>
       <c r="H1095">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096" spans="1:8">
@@ -28888,7 +28888,7 @@
         <v>-79259.72389561005</v>
       </c>
       <c r="H1096">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1097" spans="1:8">
@@ -28914,7 +28914,7 @@
         <v>-77855.56619561005</v>
       </c>
       <c r="H1097">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1098" spans="1:8">
@@ -28940,7 +28940,7 @@
         <v>-78359.65049561005</v>
       </c>
       <c r="H1098">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1099" spans="1:8">
@@ -28966,7 +28966,7 @@
         <v>-78359.65049561005</v>
       </c>
       <c r="H1099">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1100" spans="1:8">
@@ -28992,7 +28992,7 @@
         <v>-77839.21049561005</v>
       </c>
       <c r="H1100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1101" spans="1:8">
@@ -29018,7 +29018,7 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1102" spans="1:8">
@@ -29044,7 +29044,7 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1103" spans="1:8">
@@ -29070,7 +29070,7 @@
         <v>-76502.19119561005</v>
       </c>
       <c r="H1103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1104" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>-104755.66679561</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>-104482.30679561</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -30890,7 +30890,7 @@
         <v>-108551.65709561</v>
       </c>
       <c r="H1173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1174" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-106309.87219561</v>
       </c>
       <c r="H1174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-105125.39929561</v>
       </c>
       <c r="H1175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-108082.21979561</v>
       </c>
       <c r="H1176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-108584.10229561</v>
       </c>
       <c r="H1177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-113326.41539561</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-112381.9929956101</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>-113861.1277956101</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>-112000.5754956101</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>-114258.3990956101</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-111612.47449561</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-111161.73709561</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-116023.61169561</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>-115289.04849561</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>-118209.03009561</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>-117690.81419561</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>-118373.82609561</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>-119196.38899561</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>-118672.79089561</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>-118642.46089561</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-118593.51089561</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-118593.51089561</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
